--- a/3학년/결과/최종.xlsx
+++ b/3학년/결과/최종.xlsx
@@ -1,30 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.0"/>
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.3309"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\19th행사부\행사부\프로젝트\한마음\hanmaeum\3학년\결과\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <x:si>
+    <x:t>도전99초 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션달리기 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3,4 줄넘기 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점보스택스 쟁탈전 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄다리기 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달리기 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멀리뛰기 점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계주 점수</x:t>
+  </x:si>
+</x:sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="1">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
+  <x:fonts count="7">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -35,32 +134,74 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="top"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="top"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -68,28 +209,28 @@
         <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000ff"/>
@@ -98,19 +239,77 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="HNC_GO_B_HINT_GS"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
-        <a:cs typeface="HNC_GO_B_HINT_GS"/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="HNC_GO_B_HINT_GS"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
-        <a:cs typeface="HNC_GO_B_HINT_GS"/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -163,13 +362,16 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -185,7 +387,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="63500" dist="45398" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -194,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -203,8 +405,23 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection blurRad="12700" stA="26000" endPos="28000" dist="38100" dir="5400000" sy="-100000" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -259,65 +476,119 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="20000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-    </a:txDef>
-  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:K11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K11" activeCellId="0" sqref="B2:K11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetData/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <x:col min="10" max="11" width="14" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J1" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>